--- a/Excel/12-13 lesson/lesson 12-13.xlsx
+++ b/Excel/12-13 lesson/lesson 12-13.xlsx
@@ -171,7 +171,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -626,11 +626,11 @@
   </cellStyleXfs>
   <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -640,7 +640,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -668,13 +668,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -685,50 +685,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,10 +700,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,8 +725,8 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,8 +740,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,8 +759,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -807,35 +768,74 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,13 +1158,13 @@
       <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1183,15 +1183,15 @@
       <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="30">
         <f>FV(C2/12,B5*12,0,-B2,0)</f>
         <v>27513.322008675819</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="31">
         <f>EFFECT(8%,12)</f>
         <v>8.2999506807510004E-2</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="31">
         <f>(F2/B2-1)/4</f>
         <v>9.3916525108447724E-2</v>
       </c>
@@ -1211,13 +1211,13 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="95"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1227,53 +1227,53 @@
       <c r="C5" s="7">
         <v>400000</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="69" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="57">
         <v>0</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="58">
         <v>1</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="58">
         <v>2</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="58">
         <v>3</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="58">
         <v>4</v>
       </c>
-      <c r="N7" s="72" t="s">
+      <c r="N7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="73" t="s">
+      <c r="P7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1297,40 +1297,40 @@
         <v>9</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75">
+      <c r="H8" s="61"/>
+      <c r="I8" s="62">
         <f>-B9</f>
         <v>-100000</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="63">
         <f>$B9*$C9</f>
         <v>10000</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="63">
         <f t="shared" ref="K8" si="0">$B9*$C9</f>
         <v>10000</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="63">
         <f t="shared" ref="L8" si="1">$B9*$C9</f>
         <v>10000</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="63">
         <f>$B9*$C9+B9</f>
         <v>110000</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="64">
         <f>IRR(I8:M8)</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="65">
         <f>SUM(J8:M8)</f>
         <v>140000</v>
       </c>
-      <c r="P8" s="79">
+      <c r="P8" s="66">
         <f>EFFECT(C9,1)</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q8" s="79">
+      <c r="Q8" s="66">
         <f>(O8/-I8-1)/4</f>
         <v>9.9999999999999978E-2</v>
       </c>
@@ -1355,16 +1355,16 @@
         <v>23</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
@@ -1374,16 +1374,16 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1405,39 +1405,39 @@
         <v>9</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75">
+      <c r="H11" s="61"/>
+      <c r="I11" s="62">
         <f>-B12</f>
         <v>-100000</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="63">
         <f>$C12*$B12</f>
         <v>4000</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="63">
         <f>$C12*$B12</f>
         <v>4000</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="63">
         <f>$C12*$B12+B12</f>
         <v>104000</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="63">
         <v>0</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="64">
         <f>IRR(I11:M11)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="O11" s="78">
+      <c r="O11" s="65">
         <f>SUM(J11:M11)</f>
         <v>112000</v>
       </c>
-      <c r="P11" s="79">
+      <c r="P11" s="66">
         <f>EFFECT(C12,1)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q11" s="79">
+      <c r="Q11" s="66">
         <f>(O11/-I11-1)/4</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -1462,16 +1462,16 @@
         <v>23</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -1481,16 +1481,16 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1514,16 +1514,16 @@
       <c r="G14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="79"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -1549,16 +1549,16 @@
       <c r="G15" s="19">
         <v>9000</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
@@ -1568,16 +1568,16 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -1597,37 +1597,37 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75">
+      <c r="H17" s="61"/>
+      <c r="I17" s="62">
         <f>-B18</f>
         <v>-100000</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="63">
         <v>0</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="63">
         <v>0</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="63">
         <v>0</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="63">
         <f>FV(C18/12,$B$5*12,0,I17,0)</f>
         <v>122089.53550254209</v>
       </c>
-      <c r="N17" s="77">
+      <c r="N17" s="64">
         <f>IRR(I17:M17)</f>
         <v>5.1161897881734086E-2</v>
       </c>
-      <c r="O17" s="78">
+      <c r="O17" s="65">
         <f>SUM(J17:M17)</f>
         <v>122089.53550254209</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="72">
         <f>EFFECT(C18,12)</f>
         <v>5.116189788173342E-2</v>
       </c>
-      <c r="Q17" s="79">
+      <c r="Q17" s="66">
         <f>(O17/-I17-1)/4</f>
         <v>5.5223838756355226E-2</v>
       </c>
@@ -1651,58 +1651,58 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="90">
+      <c r="I19" s="77">
         <f>SUM(I8:I18)</f>
         <v>-300000</v>
       </c>
-      <c r="J19" s="91">
+      <c r="J19" s="78">
         <f t="shared" ref="J19:M19" si="2">SUM(J8:J18)</f>
         <v>14000</v>
       </c>
-      <c r="K19" s="91">
+      <c r="K19" s="78">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
-      <c r="L19" s="91">
+      <c r="L19" s="78">
         <f t="shared" si="2"/>
         <v>114000</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="78">
         <f t="shared" si="2"/>
         <v>232089.5355025421</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="79">
         <f>IRR(I19:M19)</f>
         <v>6.527813895460266E-2</v>
       </c>
-      <c r="O19" s="78">
+      <c r="O19" s="65">
         <f>SUM(J19:M19)</f>
         <v>374089.5355025421</v>
       </c>
-      <c r="P19" s="85" t="s">
+      <c r="P19" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="66">
         <f>(O19/-I19-1)/4</f>
         <v>6.1741279585451725E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1711,43 +1711,43 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="52" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="38">
         <v>0</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="29">
         <v>1</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="29">
         <v>2</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="29">
         <v>3</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="29">
         <v>4</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="50" t="s">
+      <c r="O22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="50" t="s">
+      <c r="P22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1771,39 +1771,39 @@
         <v>9</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="I23" s="48">
+      <c r="I23" s="35">
         <f>-B24</f>
         <v>-100000</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="33">
         <f>$B24*$C24</f>
         <v>5000</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="33">
         <f t="shared" ref="K23:L23" si="3">$B24*$C24</f>
         <v>5000</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="33">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="33">
         <f>$B24*$C24+B24</f>
         <v>105000</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="44">
         <f>IRR(I23:M23)</f>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="41">
         <f>SUM(J23:M23)</f>
         <v>120000</v>
       </c>
-      <c r="P23" s="55">
+      <c r="P23" s="42">
         <f>EFFECT(C24,1)</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q23" s="55">
+      <c r="Q23" s="42">
         <f>(O23/-I23-1)/4</f>
         <v>4.9999999999999989E-2</v>
       </c>
@@ -1828,12 +1828,12 @@
         <v>23</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="58"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
@@ -1848,7 +1848,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="41"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
@@ -1870,38 +1870,38 @@
         <v>9</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="I26" s="48">
+      <c r="I26" s="35">
         <f>-B27</f>
         <v>-100000</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="33">
         <f>$C27*$B27</f>
         <v>4000</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="33">
         <f>$C27*$B27</f>
         <v>4000</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="33">
         <f>$C27*$B27+B27</f>
         <v>104000</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="33">
         <v>0</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="44">
         <f>IRR(I26:M26)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="41">
         <f>SUM(J26:M26)</f>
         <v>112000</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P26" s="42">
         <f>EFFECT(C27,1)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q26" s="55">
+      <c r="Q26" s="42">
         <f>(O26/-I26-1)/4</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -1926,12 +1926,12 @@
         <v>23</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="58"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
@@ -1946,7 +1946,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="41"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
@@ -1970,35 +1970,35 @@
       <c r="G29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="35">
         <f>-B30-F30</f>
         <v>-105000</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="33">
         <v>0</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="33">
         <v>0</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="33">
         <v>0</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="33">
         <f>G30*D30</f>
         <v>90000</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N29" s="44">
         <f>IRR(I29:M29)</f>
         <v>-3.7804541804234981E-2</v>
       </c>
-      <c r="O29" s="54">
+      <c r="O29" s="41">
         <f>SUM(J29:M29)</f>
         <v>90000</v>
       </c>
-      <c r="P29" s="56" t="s">
+      <c r="P29" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="55">
+      <c r="Q29" s="42">
         <f>(O29/-I29-1)/4</f>
         <v>-3.5714285714285726E-2</v>
       </c>
@@ -2027,12 +2027,12 @@
       <c r="G30" s="19">
         <v>9000</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="58"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
@@ -2040,16 +2040,16 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="89"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="41"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
@@ -2067,41 +2067,41 @@
       <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="28"/>
-      <c r="I32" s="48">
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="I32" s="35">
         <f>-B33</f>
         <v>-95000</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="33">
         <f>FV($C$33/12,12,0,I32,0)+I32</f>
         <v>4860.3802987646777</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="33">
         <f>FV($C$33/12,12,0,-J33,0)-J33</f>
         <v>2751.4405974678157</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="33">
         <f>FV($C$33/12,12,0,-K33,0)-K33</f>
         <v>534.60353853446759</v>
       </c>
-      <c r="M32" s="59">
+      <c r="M32" s="46">
         <f>FV($C$33/12,12,0,-L33,0)</f>
         <v>68223.109027251558</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="44">
         <f>IRR(I32:M32)</f>
         <v>-5.6576489035195299E-2</v>
       </c>
-      <c r="O32" s="54">
+      <c r="O32" s="41">
         <f>SUM(J32:M32)</f>
         <v>76369.533462018517</v>
       </c>
-      <c r="P32" s="56">
+      <c r="P32" s="43">
         <f>EFFECT(C33,12)</f>
         <v>5.116189788173342E-2</v>
       </c>
-      <c r="Q32" s="55">
+      <c r="Q32" s="42">
         <f>(O32/-I32-1)/4</f>
         <v>-4.9027543521003913E-2</v>
       </c>
@@ -2123,148 +2123,148 @@
       <c r="E33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="93" t="s">
+      <c r="F33" s="92"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="95">
+      <c r="I33" s="81"/>
+      <c r="J33" s="82">
         <f>-I32+J32+J29+J26+J23-J38</f>
         <v>53779.09560407792</v>
       </c>
-      <c r="K33" s="95">
+      <c r="K33" s="82">
         <f>J33+K32+K29+K26+K23-K38</f>
         <v>10449.251506858978</v>
       </c>
-      <c r="L33" s="95">
+      <c r="L33" s="82">
         <f>K33+L32+L29+L26+L23-L38</f>
         <v>64902.570350706686</v>
       </c>
-      <c r="M33" s="60"/>
-      <c r="N33" s="58"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="45"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="61"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="48"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="62">
+      <c r="A36" s="26"/>
+      <c r="B36" s="49">
         <v>150000</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="51">
         <v>0.05</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="49">
         <v>3</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G36" s="30">
         <f>PMT(C36,F36,-B36,0,0)</f>
         <v>55081.284694686758</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I38" s="66">
+      <c r="I38" s="53">
         <v>0</v>
       </c>
-      <c r="J38" s="66">
+      <c r="J38" s="53">
         <f>$G$36</f>
         <v>55081.284694686758</v>
       </c>
-      <c r="K38" s="66">
+      <c r="K38" s="53">
         <f t="shared" ref="K38:L38" si="4">$G$36</f>
         <v>55081.284694686758</v>
       </c>
-      <c r="L38" s="66">
+      <c r="L38" s="53">
         <f t="shared" si="4"/>
         <v>55081.284694686758</v>
       </c>
-      <c r="M38" s="66">
+      <c r="M38" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="53">
         <f>SUM(I32,I29,I26,I23,I38)</f>
         <v>-400000</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J40" s="53">
         <f>J38</f>
         <v>55081.284694686758</v>
       </c>
-      <c r="K40" s="66">
+      <c r="K40" s="53">
         <f>K38</f>
         <v>55081.284694686758</v>
       </c>
-      <c r="L40" s="66">
+      <c r="L40" s="53">
         <f>L38</f>
         <v>55081.284694686758</v>
       </c>
-      <c r="M40" s="96">
+      <c r="M40" s="83">
         <f>SUM(M23,M26,M29,M32)</f>
         <v>263223.10902725154</v>
       </c>
-      <c r="N40" s="97">
+      <c r="N40" s="84">
         <f>IRR(I40:M40)</f>
         <v>2.1609438798433578E-2</v>
       </c>
-      <c r="O40" s="98">
+      <c r="O40" s="85">
         <f>SUM(J40:M40)</f>
         <v>428466.96311131178</v>
       </c>
       <c r="P40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="99">
+      <c r="Q40" s="86">
         <f>(O40/-I40-1)/4</f>
         <v>1.7791851944569836E-2</v>
       </c>
